--- a/library/library_0648.xlsx
+++ b/library/library_0648.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337EC831-B3F9-214F-A4AA-4A133FF096BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303DB62F-B945-DC44-B349-D88455058028}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="18920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>libraryProtocol</t>
   </si>
   <si>
-    <t>12.06.11</t>
-  </si>
-  <si>
     <t>01.30.12</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>GCAACGC</t>
   </si>
   <si>
-    <t>12.07.11</t>
-  </si>
-  <si>
     <t>TGATTAC</t>
   </si>
   <si>
@@ -115,6 +109,12 @@
   </si>
   <si>
     <t>S.GISH</t>
+  </si>
+  <si>
+    <t>12.09.11</t>
+  </si>
+  <si>
+    <t>12.010.11</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" activeCellId="1" sqref="B3:B18 E2:E18"/>
+      <selection activeCell="A12" sqref="A12:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -535,444 +535,444 @@
     </row>
     <row r="2" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F7">
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F8">
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F9">
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F10">
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F11">
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F12">
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F13">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F14">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F15">
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F16">
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F17">
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F18">
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/library/library_0648.xlsx
+++ b/library/library_0648.xlsx
@@ -85,7 +85,7 @@
     <t xml:space="preserve">GCAACGC</t>
   </si>
   <si>
-    <t xml:space="preserve">12.010.11</t>
+    <t xml:space="preserve">12.10.11</t>
   </si>
   <si>
     <t xml:space="preserve">TGATTAC</t>
@@ -233,16 +233,16 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="9" style="0" width="8.67"/>
